--- a/data/ploidy/size-images/ploidy_size.xlsx
+++ b/data/ploidy/size-images/ploidy_size.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/ploidy/size-images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C58B45-809B-9542-B5AB-10AA8B355C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF53C5-888E-C648-A3C6-7F4E209FF0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31460" yWindow="-1420" windowWidth="14100" windowHeight="18120" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{DD34C9EB-E2ED-8349-AB5F-FDE14F54E3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB0EB0-0DA4-F441-80F7-FBB69504C7E9}">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,6 +569,10 @@
       <c r="D2">
         <v>0.79</v>
       </c>
+      <c r="E2" s="1">
+        <f>D2*25.4</f>
+        <v>20.065999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -582,6 +587,10 @@
       <c r="D3">
         <v>0.74</v>
       </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="0">D3*25.4</f>
+        <v>18.795999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -596,6 +605,10 @@
       <c r="D4">
         <v>0.87</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>22.097999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -610,6 +623,10 @@
       <c r="D5">
         <v>0.73</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>18.541999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -624,6 +641,10 @@
       <c r="D6">
         <v>0.95</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>24.13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -638,6 +659,10 @@
       <c r="D7">
         <v>0.78</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>19.812000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -652,6 +677,10 @@
       <c r="D8">
         <v>0.74</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>18.795999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -666,6 +695,10 @@
       <c r="D9">
         <v>0.56999999999999995</v>
       </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>14.477999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -680,6 +713,10 @@
       <c r="D10">
         <v>0.97</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>24.637999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -694,6 +731,10 @@
       <c r="D11">
         <v>0.73</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>18.541999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -708,6 +749,10 @@
       <c r="D12">
         <v>0.9</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -722,6 +767,10 @@
       <c r="D13">
         <v>0.74</v>
       </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>18.795999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -736,6 +785,10 @@
       <c r="D14">
         <v>0.78</v>
       </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>19.812000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -750,6 +803,10 @@
       <c r="D15">
         <v>0.63</v>
       </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>16.001999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -764,8 +821,12 @@
       <c r="D16">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>13.715999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20250813</v>
       </c>
@@ -778,8 +839,12 @@
       <c r="D17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20250813</v>
       </c>
@@ -792,8 +857,12 @@
       <c r="D18">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20250813</v>
       </c>
@@ -806,8 +875,12 @@
       <c r="D19">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20250813</v>
       </c>
@@ -820,8 +893,12 @@
       <c r="D20">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20250813</v>
       </c>
@@ -834,8 +911,12 @@
       <c r="D21">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>23.367999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20250813</v>
       </c>
@@ -848,8 +929,12 @@
       <c r="D22">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20250813</v>
       </c>
@@ -862,8 +947,12 @@
       <c r="D23">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20250813</v>
       </c>
@@ -876,8 +965,12 @@
       <c r="D24">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20250813</v>
       </c>
@@ -890,8 +983,12 @@
       <c r="D25">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20250813</v>
       </c>
@@ -904,8 +1001,12 @@
       <c r="D26">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20250813</v>
       </c>
@@ -918,8 +1019,12 @@
       <c r="D27">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20250813</v>
       </c>
@@ -932,8 +1037,12 @@
       <c r="D28">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>23.622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20250813</v>
       </c>
@@ -946,8 +1055,12 @@
       <c r="D29">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20250813</v>
       </c>
@@ -960,8 +1073,12 @@
       <c r="D30">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>26.669999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20250813</v>
       </c>
@@ -974,8 +1091,12 @@
       <c r="D31">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20250813</v>
       </c>
@@ -988,8 +1109,12 @@
       <c r="D32">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>24.891999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20250813</v>
       </c>
@@ -1002,8 +1127,12 @@
       <c r="D33">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20250813</v>
       </c>
@@ -1016,8 +1145,12 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20250813</v>
       </c>
@@ -1030,8 +1163,12 @@
       <c r="D35">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20250813</v>
       </c>
@@ -1044,8 +1181,12 @@
       <c r="D36">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20250813</v>
       </c>
@@ -1058,8 +1199,12 @@
       <c r="D37">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20250813</v>
       </c>
@@ -1072,8 +1217,12 @@
       <c r="D38">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>18.287999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20250813</v>
       </c>
@@ -1086,8 +1235,12 @@
       <c r="D39">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>23.367999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20250813</v>
       </c>
@@ -1100,8 +1253,12 @@
       <c r="D40">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20250813</v>
       </c>
@@ -1114,8 +1271,12 @@
       <c r="D41">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20250813</v>
       </c>
@@ -1128,8 +1289,12 @@
       <c r="D42">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20250813</v>
       </c>
@@ -1142,8 +1307,12 @@
       <c r="D43">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20250813</v>
       </c>
@@ -1156,8 +1325,12 @@
       <c r="D44">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20250813</v>
       </c>
@@ -1170,8 +1343,12 @@
       <c r="D45">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20250813</v>
       </c>
@@ -1184,8 +1361,12 @@
       <c r="D46">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20250813</v>
       </c>
@@ -1198,8 +1379,12 @@
       <c r="D47">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>27.178000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20250813</v>
       </c>
@@ -1212,8 +1397,12 @@
       <c r="D48">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>18.287999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20250813</v>
       </c>
@@ -1226,8 +1415,12 @@
       <c r="D49">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20250813</v>
       </c>
@@ -1240,8 +1433,12 @@
       <c r="D50">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20250813</v>
       </c>
@@ -1254,8 +1451,12 @@
       <c r="D51">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20250813</v>
       </c>
@@ -1268,8 +1469,12 @@
       <c r="D52">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20250813</v>
       </c>
@@ -1282,8 +1487,12 @@
       <c r="D53">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20250813</v>
       </c>
@@ -1296,8 +1505,12 @@
       <c r="D54">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>17.272000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20250813</v>
       </c>
@@ -1310,8 +1523,12 @@
       <c r="D55">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20250813</v>
       </c>
@@ -1324,8 +1541,12 @@
       <c r="D56">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20250813</v>
       </c>
@@ -1338,8 +1559,12 @@
       <c r="D57">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>20.574000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20250813</v>
       </c>
@@ -1352,8 +1577,12 @@
       <c r="D58">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>18.541999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>20250813</v>
       </c>
@@ -1366,8 +1595,12 @@
       <c r="D59">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20250813</v>
       </c>
@@ -1380,8 +1613,12 @@
       <c r="D60">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20250813</v>
       </c>
@@ -1394,8 +1631,12 @@
       <c r="D61">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>20.574000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20250813</v>
       </c>
@@ -1408,8 +1649,12 @@
       <c r="D62">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>20250813</v>
       </c>
@@ -1422,8 +1667,12 @@
       <c r="D63">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>20250813</v>
       </c>
@@ -1436,8 +1685,12 @@
       <c r="D64">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20250813</v>
       </c>
@@ -1450,8 +1703,12 @@
       <c r="D65">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>20250813</v>
       </c>
@@ -1464,8 +1721,12 @@
       <c r="D66">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20250813</v>
       </c>
@@ -1478,8 +1739,12 @@
       <c r="D67">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E130" si="1">D67*25.4</f>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>20250813</v>
       </c>
@@ -1492,8 +1757,12 @@
       <c r="D68">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>15.239999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20250813</v>
       </c>
@@ -1506,8 +1775,12 @@
       <c r="D69">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20250813</v>
       </c>
@@ -1520,8 +1793,12 @@
       <c r="D70">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20250813</v>
       </c>
@@ -1534,8 +1811,12 @@
       <c r="D71">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>20250813</v>
       </c>
@@ -1548,8 +1829,12 @@
       <c r="D72">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="1">
+        <f t="shared" si="1"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>20250813</v>
       </c>
@@ -1562,8 +1847,12 @@
       <c r="D73">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="1">
+        <f t="shared" si="1"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20250813</v>
       </c>
@@ -1576,8 +1865,12 @@
       <c r="D74">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="1">
+        <f t="shared" si="1"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>20250813</v>
       </c>
@@ -1590,8 +1883,12 @@
       <c r="D75">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="1">
+        <f t="shared" si="1"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>20250813</v>
       </c>
@@ -1604,8 +1901,12 @@
       <c r="D76">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="1">
+        <f t="shared" si="1"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>20250813</v>
       </c>
@@ -1618,8 +1919,12 @@
       <c r="D77">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="1">
+        <f t="shared" si="1"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>20250813</v>
       </c>
@@ -1632,8 +1937,12 @@
       <c r="D78">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="1">
+        <f t="shared" si="1"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20250813</v>
       </c>
@@ -1646,8 +1955,12 @@
       <c r="D79">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="1">
+        <f t="shared" si="1"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20250813</v>
       </c>
@@ -1660,8 +1973,12 @@
       <c r="D80">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="1">
+        <f t="shared" si="1"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20250813</v>
       </c>
@@ -1674,8 +1991,12 @@
       <c r="D81">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="1">
+        <f t="shared" si="1"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20250813</v>
       </c>
@@ -1688,8 +2009,12 @@
       <c r="D82">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="1">
+        <f t="shared" si="1"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20250813</v>
       </c>
@@ -1702,8 +2027,12 @@
       <c r="D83">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="1">
+        <f t="shared" si="1"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20250813</v>
       </c>
@@ -1716,8 +2045,12 @@
       <c r="D84">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="1">
+        <f t="shared" si="1"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20250813</v>
       </c>
@@ -1730,8 +2063,12 @@
       <c r="D85">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="1">
+        <f t="shared" si="1"/>
+        <v>14.477999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>20250813</v>
       </c>
@@ -1744,8 +2081,12 @@
       <c r="D86">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="1">
+        <f t="shared" si="1"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>20250813</v>
       </c>
@@ -1758,8 +2099,12 @@
       <c r="D87">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="1">
+        <f t="shared" si="1"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20250813</v>
       </c>
@@ -1772,8 +2117,12 @@
       <c r="D88">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="1">
+        <f t="shared" si="1"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20250813</v>
       </c>
@@ -1786,8 +2135,12 @@
       <c r="D89">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="1">
+        <f t="shared" si="1"/>
+        <v>20.574000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>20250813</v>
       </c>
@@ -1800,8 +2153,12 @@
       <c r="D90">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="1">
+        <f t="shared" si="1"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>20250813</v>
       </c>
@@ -1814,8 +2171,12 @@
       <c r="D91">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="1">
+        <f t="shared" si="1"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20250813</v>
       </c>
@@ -1828,8 +2189,12 @@
       <c r="D92">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <f t="shared" si="1"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>20250813</v>
       </c>
@@ -1842,8 +2207,12 @@
       <c r="D93">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="1">
+        <f t="shared" si="1"/>
+        <v>24.891999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>20250813</v>
       </c>
@@ -1856,8 +2225,12 @@
       <c r="D94">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="1">
+        <f t="shared" si="1"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>20250813</v>
       </c>
@@ -1870,8 +2243,12 @@
       <c r="D95">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="1">
+        <f t="shared" si="1"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20250813</v>
       </c>
@@ -1884,8 +2261,12 @@
       <c r="D96">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="1">
+        <f t="shared" si="1"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20250813</v>
       </c>
@@ -1898,8 +2279,12 @@
       <c r="D97">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="1">
+        <f t="shared" si="1"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20250813</v>
       </c>
@@ -1912,8 +2297,12 @@
       <c r="D98">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="1">
+        <f t="shared" si="1"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>20250813</v>
       </c>
@@ -1926,8 +2315,12 @@
       <c r="D99">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="1">
+        <f t="shared" si="1"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>20250813</v>
       </c>
@@ -1940,8 +2333,12 @@
       <c r="D100">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20250813</v>
       </c>
@@ -1954,8 +2351,12 @@
       <c r="D101">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>20250813</v>
       </c>
@@ -1968,8 +2369,12 @@
       <c r="D102">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>20250813</v>
       </c>
@@ -1982,8 +2387,12 @@
       <c r="D103">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>20250813</v>
       </c>
@@ -1996,8 +2405,12 @@
       <c r="D104">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="1">
+        <f t="shared" si="1"/>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>20250813</v>
       </c>
@@ -2010,8 +2423,12 @@
       <c r="D105">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="1">
+        <f t="shared" si="1"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>20250813</v>
       </c>
@@ -2024,8 +2441,12 @@
       <c r="D106">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="1">
+        <f t="shared" si="1"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>20250813</v>
       </c>
@@ -2038,8 +2459,12 @@
       <c r="D107">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="1">
+        <f t="shared" si="1"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>20250813</v>
       </c>
@@ -2052,8 +2477,12 @@
       <c r="D108">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="1">
+        <f t="shared" si="1"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>20250813</v>
       </c>
@@ -2066,8 +2495,12 @@
       <c r="D109">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="1">
+        <f t="shared" si="1"/>
+        <v>17.779999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>20250813</v>
       </c>
@@ -2080,8 +2513,12 @@
       <c r="D110">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="1">
+        <f t="shared" si="1"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20250813</v>
       </c>
@@ -2094,8 +2531,12 @@
       <c r="D111">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="1">
+        <f t="shared" si="1"/>
+        <v>25.654</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>20250813</v>
       </c>
@@ -2108,8 +2549,12 @@
       <c r="D112">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="1">
+        <f t="shared" si="1"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20250813</v>
       </c>
@@ -2122,8 +2567,12 @@
       <c r="D113">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="1">
+        <f t="shared" si="1"/>
+        <v>28.701999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>20250813</v>
       </c>
@@ -2136,8 +2585,12 @@
       <c r="D114">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="1">
+        <f t="shared" si="1"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>20250813</v>
       </c>
@@ -2150,8 +2603,12 @@
       <c r="D115">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="1">
+        <f t="shared" si="1"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>20250813</v>
       </c>
@@ -2164,8 +2621,12 @@
       <c r="D116">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="1">
+        <f t="shared" si="1"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20250813</v>
       </c>
@@ -2178,8 +2639,12 @@
       <c r="D117">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="1">
+        <f t="shared" si="1"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>20250813</v>
       </c>
@@ -2192,8 +2657,12 @@
       <c r="D118">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="1">
+        <f t="shared" si="1"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>20250813</v>
       </c>
@@ -2206,8 +2675,12 @@
       <c r="D119">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="1">
+        <f t="shared" si="1"/>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>20250813</v>
       </c>
@@ -2220,8 +2693,12 @@
       <c r="D120">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="1">
+        <f t="shared" si="1"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20250813</v>
       </c>
@@ -2234,8 +2711,12 @@
       <c r="D121">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="1">
+        <f t="shared" si="1"/>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>20250813</v>
       </c>
@@ -2248,8 +2729,12 @@
       <c r="D122">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="1">
+        <f t="shared" si="1"/>
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>20250813</v>
       </c>
@@ -2262,8 +2747,12 @@
       <c r="D123">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="1">
+        <f t="shared" si="1"/>
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>20250813</v>
       </c>
@@ -2276,8 +2765,12 @@
       <c r="D124">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="1">
+        <f t="shared" si="1"/>
+        <v>17.779999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>20250813</v>
       </c>
@@ -2290,8 +2783,12 @@
       <c r="D125">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="1">
+        <f t="shared" si="1"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>20250813</v>
       </c>
@@ -2304,8 +2801,12 @@
       <c r="D126">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="1">
+        <f t="shared" si="1"/>
+        <v>25.654</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>20250813</v>
       </c>
@@ -2318,8 +2819,12 @@
       <c r="D127">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="1">
+        <f t="shared" si="1"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>20250813</v>
       </c>
@@ -2332,8 +2837,12 @@
       <c r="D128">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="1">
+        <f t="shared" si="1"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>20250813</v>
       </c>
@@ -2346,8 +2855,12 @@
       <c r="D129">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="1">
+        <f t="shared" si="1"/>
+        <v>15.493999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>20250813</v>
       </c>
@@ -2360,8 +2873,12 @@
       <c r="D130">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="1">
+        <f t="shared" si="1"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>20250813</v>
       </c>
@@ -2374,8 +2891,12 @@
       <c r="D131">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="1">
+        <f t="shared" ref="E131:E194" si="2">D131*25.4</f>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>20250813</v>
       </c>
@@ -2388,8 +2909,12 @@
       <c r="D132">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="1">
+        <f t="shared" si="2"/>
+        <v>23.622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>20250813</v>
       </c>
@@ -2402,8 +2927,12 @@
       <c r="D133">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="1">
+        <f t="shared" si="2"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>20250813</v>
       </c>
@@ -2416,8 +2945,12 @@
       <c r="D134">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="1">
+        <f t="shared" si="2"/>
+        <v>15.493999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>20250813</v>
       </c>
@@ -2430,8 +2963,12 @@
       <c r="D135">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="1">
+        <f t="shared" si="2"/>
+        <v>26.923999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20250813</v>
       </c>
@@ -2444,8 +2981,12 @@
       <c r="D136">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="1">
+        <f t="shared" si="2"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>20250813</v>
       </c>
@@ -2458,8 +2999,12 @@
       <c r="D137">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="1">
+        <f t="shared" si="2"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>20250813</v>
       </c>
@@ -2472,8 +3017,12 @@
       <c r="D138">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="1">
+        <f t="shared" si="2"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>20250813</v>
       </c>
@@ -2486,8 +3035,12 @@
       <c r="D139">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="1">
+        <f t="shared" si="2"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>20250813</v>
       </c>
@@ -2500,8 +3053,12 @@
       <c r="D140">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="1">
+        <f t="shared" si="2"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20250813</v>
       </c>
@@ -2514,8 +3071,12 @@
       <c r="D141">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="1">
+        <f t="shared" si="2"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20250813</v>
       </c>
@@ -2528,8 +3089,12 @@
       <c r="D142">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="1">
+        <f t="shared" si="2"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>20250813</v>
       </c>
@@ -2542,8 +3107,12 @@
       <c r="D143">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="1">
+        <f t="shared" si="2"/>
+        <v>26.416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>20250813</v>
       </c>
@@ -2556,8 +3125,12 @@
       <c r="D144">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="1">
+        <f t="shared" si="2"/>
+        <v>17.272000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>20250813</v>
       </c>
@@ -2570,8 +3143,12 @@
       <c r="D145">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="1">
+        <f t="shared" si="2"/>
+        <v>17.272000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>20250813</v>
       </c>
@@ -2584,8 +3161,12 @@
       <c r="D146">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="1">
+        <f t="shared" si="2"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>20250813</v>
       </c>
@@ -2598,8 +3179,12 @@
       <c r="D147">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>20250813</v>
       </c>
@@ -2612,8 +3197,12 @@
       <c r="D148">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="1">
+        <f t="shared" si="2"/>
+        <v>24.891999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>20250813</v>
       </c>
@@ -2626,8 +3215,12 @@
       <c r="D149">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="1">
+        <f t="shared" si="2"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>20250813</v>
       </c>
@@ -2640,8 +3233,12 @@
       <c r="D150">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="1">
+        <f t="shared" si="2"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>20250813</v>
       </c>
@@ -2654,8 +3251,12 @@
       <c r="D151">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="1">
+        <f t="shared" si="2"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>20250813</v>
       </c>
@@ -2668,8 +3269,12 @@
       <c r="D152">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="1">
+        <f t="shared" si="2"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>20250813</v>
       </c>
@@ -2682,8 +3287,12 @@
       <c r="D153">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>20250813</v>
       </c>
@@ -2696,8 +3305,12 @@
       <c r="D154">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="1">
+        <f t="shared" si="2"/>
+        <v>25.654</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>20250813</v>
       </c>
@@ -2710,8 +3323,12 @@
       <c r="D155">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="1">
+        <f t="shared" si="2"/>
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>20250813</v>
       </c>
@@ -2724,8 +3341,12 @@
       <c r="D156">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="1">
+        <f t="shared" si="2"/>
+        <v>23.367999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>20250813</v>
       </c>
@@ -2738,8 +3359,12 @@
       <c r="D157">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="1">
+        <f t="shared" si="2"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>20250813</v>
       </c>
@@ -2752,8 +3377,12 @@
       <c r="D158">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="1">
+        <f t="shared" si="2"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>20250813</v>
       </c>
@@ -2766,8 +3395,12 @@
       <c r="D159">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>20250813</v>
       </c>
@@ -2780,8 +3413,12 @@
       <c r="D160">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="1">
+        <f t="shared" si="2"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20250813</v>
       </c>
@@ -2794,8 +3431,12 @@
       <c r="D161">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="1">
+        <f t="shared" si="2"/>
+        <v>25.145999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>20250813</v>
       </c>
@@ -2808,8 +3449,12 @@
       <c r="D162">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>20250813</v>
       </c>
@@ -2822,8 +3467,12 @@
       <c r="D163">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="1">
+        <f t="shared" si="2"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>20250813</v>
       </c>
@@ -2836,8 +3485,12 @@
       <c r="D164">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="1">
+        <f t="shared" si="2"/>
+        <v>16.256</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>20250813</v>
       </c>
@@ -2850,8 +3503,12 @@
       <c r="D165">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="1">
+        <f t="shared" si="2"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>20250813</v>
       </c>
@@ -2864,8 +3521,12 @@
       <c r="D166">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="1">
+        <f t="shared" si="2"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>20250813</v>
       </c>
@@ -2878,8 +3539,12 @@
       <c r="D167">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="1">
+        <f t="shared" si="2"/>
+        <v>25.654</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>20250813</v>
       </c>
@@ -2892,8 +3557,12 @@
       <c r="D168">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="1">
+        <f t="shared" si="2"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>20250813</v>
       </c>
@@ -2906,8 +3575,12 @@
       <c r="D169">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="1">
+        <f t="shared" si="2"/>
+        <v>17.272000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>20250813</v>
       </c>
@@ -2920,8 +3593,12 @@
       <c r="D170">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="1">
+        <f t="shared" si="2"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>20250813</v>
       </c>
@@ -2934,8 +3611,12 @@
       <c r="D171">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="1">
+        <f t="shared" si="2"/>
+        <v>15.239999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>20250813</v>
       </c>
@@ -2948,8 +3629,12 @@
       <c r="D172">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="1">
+        <f t="shared" si="2"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>20250813</v>
       </c>
@@ -2962,8 +3647,12 @@
       <c r="D173">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="1">
+        <f t="shared" si="2"/>
+        <v>16.763999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>20250813</v>
       </c>
@@ -2976,8 +3665,12 @@
       <c r="D174">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>20250813</v>
       </c>
@@ -2990,8 +3683,12 @@
       <c r="D175">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="1">
+        <f t="shared" si="2"/>
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>20250813</v>
       </c>
@@ -3004,8 +3701,12 @@
       <c r="D176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="1">
+        <f t="shared" si="2"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>20250813</v>
       </c>
@@ -3018,8 +3719,12 @@
       <c r="D177">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="1">
+        <f t="shared" si="2"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>20250813</v>
       </c>
@@ -3032,8 +3737,12 @@
       <c r="D178">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="1">
+        <f t="shared" si="2"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>20250813</v>
       </c>
@@ -3046,8 +3755,12 @@
       <c r="D179">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="1">
+        <f t="shared" si="2"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>20250813</v>
       </c>
@@ -3060,8 +3773,12 @@
       <c r="D180">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="1">
+        <f t="shared" si="2"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>20250813</v>
       </c>
@@ -3074,8 +3791,12 @@
       <c r="D181">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="1">
+        <f t="shared" si="2"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>20250813</v>
       </c>
@@ -3088,8 +3809,12 @@
       <c r="D182">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="1">
+        <f t="shared" si="2"/>
+        <v>15.747999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>20250813</v>
       </c>
@@ -3102,8 +3827,12 @@
       <c r="D183">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="1">
+        <f t="shared" si="2"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>20250813</v>
       </c>
@@ -3116,8 +3845,12 @@
       <c r="D184">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="1">
+        <f t="shared" si="2"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>20250813</v>
       </c>
@@ -3130,8 +3863,12 @@
       <c r="D185">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="1">
+        <f t="shared" si="2"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>20250813</v>
       </c>
@@ -3144,8 +3881,12 @@
       <c r="D186">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="1">
+        <f t="shared" si="2"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>20250813</v>
       </c>
@@ -3158,8 +3899,12 @@
       <c r="D187">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="1">
+        <f t="shared" si="2"/>
+        <v>17.779999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>20250813</v>
       </c>
@@ -3172,8 +3917,12 @@
       <c r="D188">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="1">
+        <f t="shared" si="2"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>20250813</v>
       </c>
@@ -3186,8 +3935,12 @@
       <c r="D189">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="1">
+        <f t="shared" si="2"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>20250813</v>
       </c>
@@ -3200,8 +3953,12 @@
       <c r="D190">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="1">
+        <f t="shared" si="2"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>20250813</v>
       </c>
@@ -3214,8 +3971,12 @@
       <c r="D191">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="1">
+        <f t="shared" si="2"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>20250813</v>
       </c>
@@ -3228,8 +3989,12 @@
       <c r="D192">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="1">
+        <f t="shared" si="2"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>20250813</v>
       </c>
@@ -3242,8 +4007,12 @@
       <c r="D193">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="1">
+        <f t="shared" si="2"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>20250813</v>
       </c>
@@ -3256,8 +4025,12 @@
       <c r="D194">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="1">
+        <f t="shared" si="2"/>
+        <v>26.416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>20250813</v>
       </c>
@@ -3270,8 +4043,12 @@
       <c r="D195">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="1">
+        <f t="shared" ref="E195:E258" si="3">D195*25.4</f>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>20250813</v>
       </c>
@@ -3284,8 +4061,12 @@
       <c r="D196">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="1">
+        <f t="shared" si="3"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>20250813</v>
       </c>
@@ -3298,8 +4079,12 @@
       <c r="D197">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="1">
+        <f t="shared" si="3"/>
+        <v>18.287999999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>20250813</v>
       </c>
@@ -3312,8 +4097,12 @@
       <c r="D198">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="1">
+        <f t="shared" si="3"/>
+        <v>25.907999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>20250813</v>
       </c>
@@ -3326,8 +4115,12 @@
       <c r="D199">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="1">
+        <f t="shared" si="3"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>20250813</v>
       </c>
@@ -3340,8 +4133,12 @@
       <c r="D200">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="1">
+        <f t="shared" si="3"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>20250813</v>
       </c>
@@ -3354,8 +4151,12 @@
       <c r="D201">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="1">
+        <f t="shared" si="3"/>
+        <v>17.779999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20250813</v>
       </c>
@@ -3368,8 +4169,12 @@
       <c r="D202">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="1">
+        <f t="shared" si="3"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>20250813</v>
       </c>
@@ -3382,8 +4187,12 @@
       <c r="D203">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="1">
+        <f t="shared" si="3"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>20250813</v>
       </c>
@@ -3396,8 +4205,12 @@
       <c r="D204">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="1">
+        <f t="shared" si="3"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>20250813</v>
       </c>
@@ -3410,8 +4223,12 @@
       <c r="D205">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" s="1">
+        <f t="shared" si="3"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>20250813</v>
       </c>
@@ -3424,8 +4241,12 @@
       <c r="D206">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" s="1">
+        <f t="shared" si="3"/>
+        <v>13.208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>20250813</v>
       </c>
@@ -3438,8 +4259,12 @@
       <c r="D207">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="1">
+        <f t="shared" si="3"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>20250813</v>
       </c>
@@ -3452,8 +4277,12 @@
       <c r="D208">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="1">
+        <f t="shared" si="3"/>
+        <v>16.256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>20250813</v>
       </c>
@@ -3466,8 +4295,12 @@
       <c r="D209">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="1">
+        <f t="shared" si="3"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>20250813</v>
       </c>
@@ -3480,8 +4313,12 @@
       <c r="D210">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="1">
+        <f t="shared" si="3"/>
+        <v>18.541999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>20250813</v>
       </c>
@@ -3494,8 +4331,12 @@
       <c r="D211">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="1">
+        <f t="shared" si="3"/>
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>20250813</v>
       </c>
@@ -3508,8 +4349,12 @@
       <c r="D212">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="1">
+        <f t="shared" si="3"/>
+        <v>16.256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>20250813</v>
       </c>
@@ -3522,8 +4367,12 @@
       <c r="D213">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="1">
+        <f t="shared" si="3"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>20250813</v>
       </c>
@@ -3536,8 +4385,12 @@
       <c r="D214">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="1">
+        <f t="shared" si="3"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>20250813</v>
       </c>
@@ -3550,8 +4403,12 @@
       <c r="D215">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="1">
+        <f t="shared" si="3"/>
+        <v>20.574000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>20250813</v>
       </c>
@@ -3564,8 +4421,12 @@
       <c r="D216">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="1">
+        <f t="shared" si="3"/>
+        <v>19.558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>20250813</v>
       </c>
@@ -3578,8 +4439,12 @@
       <c r="D217">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="1">
+        <f t="shared" si="3"/>
+        <v>14.477999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>20250813</v>
       </c>
@@ -3592,8 +4457,12 @@
       <c r="D218">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="1">
+        <f t="shared" si="3"/>
+        <v>26.923999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>20250813</v>
       </c>
@@ -3606,8 +4475,12 @@
       <c r="D219">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="1">
+        <f t="shared" si="3"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>20250813</v>
       </c>
@@ -3620,8 +4493,12 @@
       <c r="D220">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="1">
+        <f t="shared" si="3"/>
+        <v>15.239999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>20250813</v>
       </c>
@@ -3634,8 +4511,12 @@
       <c r="D221">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="1">
+        <f t="shared" si="3"/>
+        <v>23.114000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>20250813</v>
       </c>
@@ -3648,8 +4529,12 @@
       <c r="D222">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="1">
+        <f t="shared" si="3"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>20250813</v>
       </c>
@@ -3662,8 +4547,12 @@
       <c r="D223">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" s="1">
+        <f t="shared" si="3"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>20250813</v>
       </c>
@@ -3676,8 +4565,12 @@
       <c r="D224">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" s="1">
+        <f t="shared" si="3"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>20250813</v>
       </c>
@@ -3690,8 +4583,12 @@
       <c r="D225">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="1">
+        <f t="shared" si="3"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>20250813</v>
       </c>
@@ -3704,8 +4601,12 @@
       <c r="D226">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" s="1">
+        <f t="shared" si="3"/>
+        <v>24.891999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>20250813</v>
       </c>
@@ -3718,8 +4619,12 @@
       <c r="D227">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="1">
+        <f t="shared" si="3"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>20250813</v>
       </c>
@@ -3732,8 +4637,12 @@
       <c r="D228">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" s="1">
+        <f t="shared" si="3"/>
+        <v>18.541999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>20250813</v>
       </c>
@@ -3746,8 +4655,12 @@
       <c r="D229">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" s="1">
+        <f t="shared" si="3"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>20250813</v>
       </c>
@@ -3760,8 +4673,12 @@
       <c r="D230">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" s="1">
+        <f t="shared" si="3"/>
+        <v>19.812000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>20250813</v>
       </c>
@@ -3774,8 +4691,12 @@
       <c r="D231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" s="1">
+        <f t="shared" si="3"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>20250813</v>
       </c>
@@ -3788,8 +4709,12 @@
       <c r="D232">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" s="1">
+        <f t="shared" si="3"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>20250813</v>
       </c>
@@ -3802,8 +4727,12 @@
       <c r="D233">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" s="1">
+        <f t="shared" si="3"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>20250813</v>
       </c>
@@ -3816,8 +4745,12 @@
       <c r="D234">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" s="1">
+        <f t="shared" si="3"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>20250813</v>
       </c>
@@ -3830,8 +4763,12 @@
       <c r="D235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" s="1">
+        <f t="shared" si="3"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>20250813</v>
       </c>
@@ -3844,8 +4781,12 @@
       <c r="D236">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" s="1">
+        <f t="shared" si="3"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>20250813</v>
       </c>
@@ -3858,8 +4799,12 @@
       <c r="D237">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" s="1">
+        <f t="shared" si="3"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>20250813</v>
       </c>
@@ -3872,8 +4817,12 @@
       <c r="D238">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" s="1">
+        <f t="shared" si="3"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>20250813</v>
       </c>
@@ -3886,8 +4835,12 @@
       <c r="D239">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" s="1">
+        <f t="shared" si="3"/>
+        <v>23.367999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>20250813</v>
       </c>
@@ -3900,8 +4853,12 @@
       <c r="D240">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" s="1">
+        <f t="shared" si="3"/>
+        <v>16.763999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>20250813</v>
       </c>
@@ -3914,8 +4871,12 @@
       <c r="D241">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" s="1">
+        <f t="shared" si="3"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>20250813</v>
       </c>
@@ -3928,8 +4889,12 @@
       <c r="D242">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" s="1">
+        <f t="shared" si="3"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>20250813</v>
       </c>
@@ -3942,8 +4907,12 @@
       <c r="D243">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="1">
+        <f t="shared" si="3"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>20250813</v>
       </c>
@@ -3956,8 +4925,12 @@
       <c r="D244">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" s="1">
+        <f t="shared" si="3"/>
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>20250813</v>
       </c>
@@ -3970,8 +4943,12 @@
       <c r="D245">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" s="1">
+        <f t="shared" si="3"/>
+        <v>21.081999999999997</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>20250813</v>
       </c>
@@ -3984,8 +4961,12 @@
       <c r="D246">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="1">
+        <f t="shared" si="3"/>
+        <v>21.843999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>20250813</v>
       </c>
@@ -3998,8 +4979,12 @@
       <c r="D247">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="1">
+        <f t="shared" si="3"/>
+        <v>17.018000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>20250813</v>
       </c>
@@ -4012,8 +4997,12 @@
       <c r="D248">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" s="1">
+        <f t="shared" si="3"/>
+        <v>24.637999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>20250813</v>
       </c>
@@ -4026,8 +5015,12 @@
       <c r="D249">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" s="1">
+        <f t="shared" si="3"/>
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>20250813</v>
       </c>
@@ -4040,8 +5033,12 @@
       <c r="D250">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" s="1">
+        <f t="shared" si="3"/>
+        <v>25.145999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>20250813</v>
       </c>
@@ -4054,8 +5051,12 @@
       <c r="D251">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" s="1">
+        <f t="shared" si="3"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>20250813</v>
       </c>
@@ -4068,8 +5069,12 @@
       <c r="D252">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" s="1">
+        <f t="shared" si="3"/>
+        <v>17.525999999999996</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>20250813</v>
       </c>
@@ -4082,8 +5087,12 @@
       <c r="D253">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" s="1">
+        <f t="shared" si="3"/>
+        <v>15.493999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>20250813</v>
       </c>
@@ -4096,8 +5105,12 @@
       <c r="D254">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" s="1">
+        <f t="shared" si="3"/>
+        <v>12.953999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>20250813</v>
       </c>
@@ -4110,8 +5123,12 @@
       <c r="D255">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" s="1">
+        <f t="shared" si="3"/>
+        <v>18.541999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>20250813</v>
       </c>
@@ -4124,8 +5141,12 @@
       <c r="D256">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" s="1">
+        <f t="shared" si="3"/>
+        <v>15.747999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>20250813</v>
       </c>
@@ -4138,8 +5159,12 @@
       <c r="D257">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" s="1">
+        <f t="shared" si="3"/>
+        <v>23.875999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>20250813</v>
       </c>
@@ -4152,8 +5177,12 @@
       <c r="D258">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" s="1">
+        <f t="shared" si="3"/>
+        <v>22.352</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>20250813</v>
       </c>
@@ -4166,8 +5195,12 @@
       <c r="D259">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" s="1">
+        <f t="shared" ref="E259:E285" si="4">D259*25.4</f>
+        <v>24.383999999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20250813</v>
       </c>
@@ -4180,8 +5213,12 @@
       <c r="D260">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" s="1">
+        <f t="shared" si="4"/>
+        <v>20.065999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>20250813</v>
       </c>
@@ -4194,8 +5231,12 @@
       <c r="D261">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" s="1">
+        <f t="shared" si="4"/>
+        <v>22.097999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>20250813</v>
       </c>
@@ -4208,8 +5249,12 @@
       <c r="D262">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" s="1">
+        <f t="shared" si="4"/>
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>20250813</v>
       </c>
@@ -4222,8 +5267,12 @@
       <c r="D263">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" s="1">
+        <f t="shared" si="4"/>
+        <v>26.923999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20250813</v>
       </c>
@@ -4236,8 +5285,12 @@
       <c r="D264">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" s="1">
+        <f t="shared" si="4"/>
+        <v>22.605999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>20250813</v>
       </c>
@@ -4250,8 +5303,12 @@
       <c r="D265">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" s="1">
+        <f t="shared" si="4"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>20250813</v>
       </c>
@@ -4264,8 +5321,12 @@
       <c r="D266">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" s="1">
+        <f t="shared" si="4"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>20250813</v>
       </c>
@@ -4278,8 +5339,12 @@
       <c r="D267">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" s="1">
+        <f t="shared" si="4"/>
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>20250813</v>
       </c>
@@ -4292,8 +5357,12 @@
       <c r="D268">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" s="1">
+        <f t="shared" si="4"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>20250813</v>
       </c>
@@ -4306,8 +5375,12 @@
       <c r="D269">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" s="1">
+        <f t="shared" si="4"/>
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>20250813</v>
       </c>
@@ -4320,8 +5393,12 @@
       <c r="D270">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" s="1">
+        <f t="shared" si="4"/>
+        <v>23.622</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>20250813</v>
       </c>
@@ -4334,8 +5411,12 @@
       <c r="D271">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" s="1">
+        <f t="shared" si="4"/>
+        <v>16.256</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>20250813</v>
       </c>
@@ -4348,8 +5429,12 @@
       <c r="D272">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" s="1">
+        <f t="shared" si="4"/>
+        <v>28.701999999999995</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>20250813</v>
       </c>
@@ -4362,8 +5447,12 @@
       <c r="D273">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" s="1">
+        <f t="shared" si="4"/>
+        <v>16.763999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>20250813</v>
       </c>
@@ -4376,8 +5465,12 @@
       <c r="D274">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" s="1">
+        <f t="shared" si="4"/>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>20250813</v>
       </c>
@@ -4390,8 +5483,12 @@
       <c r="D275">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" s="1">
+        <f t="shared" si="4"/>
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>20250813</v>
       </c>
@@ -4404,8 +5501,12 @@
       <c r="D276">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" s="1">
+        <f t="shared" si="4"/>
+        <v>18.287999999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>20250813</v>
       </c>
@@ -4418,8 +5519,12 @@
       <c r="D277">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" s="1">
+        <f t="shared" si="4"/>
+        <v>18.033999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>20250813</v>
       </c>
@@ -4432,8 +5537,12 @@
       <c r="D278">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" s="1">
+        <f t="shared" si="4"/>
+        <v>20.574000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>20250813</v>
       </c>
@@ -4446,8 +5555,12 @@
       <c r="D279">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" s="1">
+        <f t="shared" si="4"/>
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>20250813</v>
       </c>
@@ -4460,8 +5573,12 @@
       <c r="D280">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" s="1">
+        <f t="shared" si="4"/>
+        <v>16.509999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>20250813</v>
       </c>
@@ -4474,8 +5591,12 @@
       <c r="D281">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" s="1">
+        <f t="shared" si="4"/>
+        <v>18.287999999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>20250813</v>
       </c>
@@ -4488,8 +5609,12 @@
       <c r="D282">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" s="1">
+        <f t="shared" si="4"/>
+        <v>20.827999999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>20250813</v>
       </c>
@@ -4502,8 +5627,12 @@
       <c r="D283">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" s="1">
+        <f t="shared" si="4"/>
+        <v>19.049999999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>20250813</v>
       </c>
@@ -4516,8 +5645,12 @@
       <c r="D284">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" s="1">
+        <f t="shared" si="4"/>
+        <v>19.303999999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>20250813</v>
       </c>
@@ -4529,6 +5662,10 @@
       </c>
       <c r="D285">
         <v>0.82</v>
+      </c>
+      <c r="E285" s="1">
+        <f t="shared" si="4"/>
+        <v>20.827999999999996</v>
       </c>
     </row>
   </sheetData>
